--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.034</v>
+        <v>0.0866</v>
       </c>
       <c r="E2">
-        <v>-0.06365</v>
+        <v>0.13</v>
+      </c>
+      <c r="F2">
+        <v>0.15</v>
       </c>
       <c r="G2">
-        <v>0.06635173778961526</v>
+        <v>0.06691477920399987</v>
       </c>
       <c r="H2">
-        <v>0.003189839156985495</v>
+        <v>0.009250982876387525</v>
       </c>
       <c r="I2">
-        <v>-0.00141311760045509</v>
+        <v>0.01027058360436002</v>
       </c>
       <c r="J2">
-        <v>-0.001187035529265841</v>
+        <v>0.008742827964338088</v>
       </c>
       <c r="K2">
-        <v>379.508</v>
+        <v>715.377</v>
       </c>
       <c r="L2">
-        <v>0.1063769313523068</v>
+        <v>0.1600198364765693</v>
       </c>
       <c r="M2">
-        <v>407.256</v>
+        <v>455.817</v>
       </c>
       <c r="N2">
-        <v>0.04819826360990622</v>
+        <v>0.03696412731988283</v>
       </c>
       <c r="O2">
-        <v>1.073115718245729</v>
+        <v>0.6371703311680416</v>
       </c>
       <c r="P2">
-        <v>376.432</v>
+        <v>428.485</v>
       </c>
       <c r="Q2">
-        <v>0.04455027984168243</v>
+        <v>0.03474765990443532</v>
       </c>
       <c r="R2">
-        <v>0.991894769016727</v>
+        <v>0.5989639029490744</v>
       </c>
       <c r="S2">
-        <v>30.824</v>
+        <v>27.33199999999999</v>
       </c>
       <c r="T2">
-        <v>0.07568703714616849</v>
+        <v>0.05996266045364695</v>
       </c>
       <c r="U2">
-        <v>1686.738</v>
+        <v>2365.452</v>
       </c>
       <c r="V2">
-        <v>0.1996234377513063</v>
+        <v>0.1918245017124668</v>
       </c>
       <c r="W2">
-        <v>0.06159614354579539</v>
+        <v>0.1167606811404364</v>
       </c>
       <c r="X2">
-        <v>0.04532138552962196</v>
+        <v>0.03238166116588696</v>
       </c>
       <c r="Y2">
-        <v>0.01627475801617343</v>
+        <v>0.08437901997454948</v>
       </c>
       <c r="Z2">
-        <v>1.396880355367099</v>
+        <v>1.919950022831449</v>
       </c>
       <c r="AA2">
-        <v>0.003731140335338927</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04439459404468686</v>
+        <v>0.03176091195602986</v>
       </c>
       <c r="AC2">
-        <v>-0.041067574353049</v>
+        <v>-0.03165251506132538</v>
       </c>
       <c r="AD2">
-        <v>1314.984</v>
+        <v>1466.47</v>
       </c>
       <c r="AE2">
-        <v>426.0470363139818</v>
+        <v>0.6691096318055761</v>
       </c>
       <c r="AF2">
-        <v>1741.031036313982</v>
+        <v>1467.139109631805</v>
       </c>
       <c r="AG2">
-        <v>54.2930363139817</v>
+        <v>-898.3128903681948</v>
       </c>
       <c r="AH2">
-        <v>0.170846260742454</v>
+        <v>0.1063261926138547</v>
       </c>
       <c r="AI2">
-        <v>0.2951412288499273</v>
+        <v>0.2411734025571048</v>
       </c>
       <c r="AJ2">
-        <v>0.006384492663140048</v>
+        <v>-0.07857178621068114</v>
       </c>
       <c r="AK2">
-        <v>0.01288935616788934</v>
+        <v>-0.2416193249331359</v>
       </c>
       <c r="AL2">
-        <v>0.324</v>
+        <v>1.038</v>
       </c>
       <c r="AM2">
-        <v>-16.622</v>
+        <v>-14.455</v>
       </c>
       <c r="AN2">
-        <v>15.92530155500654</v>
+        <v>31.1650196578472</v>
       </c>
       <c r="AO2">
-        <v>38.28395061728395</v>
+        <v>43.878612716763</v>
       </c>
       <c r="AP2">
-        <v>0.657523571113473</v>
+        <v>-19.09070003970237</v>
       </c>
       <c r="AQ2">
-        <v>-0.7462399229936231</v>
+        <v>-3.150882047734348</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alpha FX Group plc (AIM:AFX)</t>
+          <t>Marechale Capital Plc (AIM:MAC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,112 +728,112 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.3360215053763441</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3360215053763441</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3787263582011418</v>
+        <v>0.05191885453406596</v>
       </c>
       <c r="J3">
-        <v>0.304210717594034</v>
+        <v>0.05191885453406596</v>
       </c>
       <c r="K3">
-        <v>12.5</v>
+        <v>-0.048</v>
       </c>
       <c r="L3">
-        <v>0.3360215053763441</v>
+        <v>-0.07729468599033816</v>
       </c>
       <c r="M3">
-        <v>2.97</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.004832411324438659</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.2376</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.97</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.004832411324438659</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2376</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>75.40000000000001</v>
+        <v>0.229</v>
       </c>
       <c r="V3">
-        <v>0.1226814188089815</v>
+        <v>0.2779126213592233</v>
       </c>
       <c r="W3">
-        <v>0.3943217665615142</v>
+        <v>-0.3609022556390977</v>
       </c>
       <c r="X3">
-        <v>0.04482154170147451</v>
+        <v>0.03368548469684975</v>
       </c>
       <c r="Y3">
-        <v>0.3495002248600397</v>
+        <v>-0.3945877403359475</v>
       </c>
       <c r="Z3">
-        <v>1.68273274036013</v>
+        <v>9.889801702574305</v>
       </c>
       <c r="AA3">
-        <v>0.5119053344639305</v>
+        <v>0.5134671759667132</v>
       </c>
       <c r="AB3">
-        <v>0.0443084460909652</v>
+        <v>0.03273897681667876</v>
       </c>
       <c r="AC3">
-        <v>0.4675968883729653</v>
+        <v>0.4807281991500345</v>
       </c>
       <c r="AD3">
-        <v>10.3</v>
+        <v>0.065</v>
       </c>
       <c r="AE3">
-        <v>13.50689737458763</v>
+        <v>0.03879195667172521</v>
       </c>
       <c r="AF3">
-        <v>23.80689737458763</v>
+        <v>0.1037919566717252</v>
       </c>
       <c r="AG3">
-        <v>-51.59310262541238</v>
+        <v>-0.1252080433282748</v>
       </c>
       <c r="AH3">
-        <v>0.03729110301359861</v>
+        <v>0.1118698603985088</v>
       </c>
       <c r="AI3">
-        <v>0.2650898546833017</v>
+        <v>0.4477806657403575</v>
       </c>
       <c r="AJ3">
-        <v>-0.0916384912263086</v>
+        <v>-0.1791778541994501</v>
       </c>
       <c r="AK3">
-        <v>-3.581139039444929</v>
+        <v>-44.84598367742785</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AM3">
-        <v>-0.098</v>
+        <v>0.038</v>
       </c>
       <c r="AN3">
-        <v>0.6098283007696862</v>
+        <v>1.625</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.054653796649637</v>
+        <v>-3.130201083206869</v>
       </c>
       <c r="AQ3">
-        <v>-158.1632653061224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marechale Capital Plc (AIM:MAC)</t>
+          <t>FRP Advisory Group plc (AIM:FRP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,22 +853,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.08038768529076397</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.08038768529076397</v>
       </c>
       <c r="I4">
-        <v>0.04900961596496606</v>
+        <v>0.1790193842645382</v>
       </c>
       <c r="J4">
-        <v>0.04900961596496606</v>
+        <v>0.1430778001929655</v>
       </c>
       <c r="K4">
-        <v>-0.23</v>
+        <v>10.4</v>
       </c>
       <c r="L4">
-        <v>-0.3244005641748943</v>
+        <v>0.1185860889395667</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,7 +877,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,79 +886,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.109</v>
+        <v>19.9</v>
       </c>
       <c r="V4">
-        <v>0.1679506933744222</v>
+        <v>0.05947399880454273</v>
       </c>
       <c r="W4">
-        <v>-0.7986111111111112</v>
+        <v>0.2561576354679803</v>
       </c>
       <c r="X4">
-        <v>0.04532138552962196</v>
+        <v>0.03172993482891753</v>
       </c>
       <c r="Y4">
-        <v>-0.8439324966407331</v>
+        <v>0.2244277006390628</v>
       </c>
       <c r="Z4">
-        <v>2.844409081255036</v>
+        <v>2.343666488508819</v>
       </c>
       <c r="AA4">
-        <v>0.1394033967195713</v>
+        <v>0.3353266455618139</v>
       </c>
       <c r="AB4">
-        <v>0.04465302969079461</v>
+        <v>0.03167822525112959</v>
       </c>
       <c r="AC4">
-        <v>0.09475036702877668</v>
+        <v>0.3036484203106843</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="AE4">
-        <v>0.04126091140419527</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.04126091140419527</v>
+        <v>5.64</v>
       </c>
       <c r="AG4">
-        <v>-0.06773908859580473</v>
+        <v>-14.26</v>
       </c>
       <c r="AH4">
-        <v>0.05977581914678951</v>
+        <v>0.01657653421114507</v>
       </c>
       <c r="AI4">
-        <v>0.2367766303510905</v>
+        <v>0.1252220248667851</v>
       </c>
       <c r="AJ4">
-        <v>-0.1165381797860144</v>
+        <v>-0.04451520259724042</v>
       </c>
       <c r="AK4">
-        <v>-1.037973376992252</v>
+        <v>-0.5672235481304693</v>
       </c>
       <c r="AL4">
-        <v>0.049</v>
+        <v>0.19</v>
       </c>
       <c r="AM4">
-        <v>0.049</v>
+        <v>0.186</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.3377245508982036</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>82.63157894736841</v>
       </c>
       <c r="AP4">
-        <v>-1.575327641762901</v>
+        <v>-0.8538922155688622</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>84.40860215053763</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>finnCap Group Plc (AIM:FCAP)</t>
+          <t>Arden Partners plc (AIM:ARDN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -974,6 +977,9 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.0431</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -981,103 +987,103 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01864457200172757</v>
+        <v>0.04639502848483359</v>
       </c>
       <c r="J5">
-        <v>0.01344143562915243</v>
+        <v>0.04639502848483359</v>
       </c>
       <c r="K5">
-        <v>3.1</v>
+        <v>-3.11</v>
       </c>
       <c r="L5">
-        <v>0.07928388746803069</v>
+        <v>-0.4277854195323246</v>
       </c>
       <c r="M5">
-        <v>1.331</v>
+        <v>0.503</v>
       </c>
       <c r="N5">
-        <v>0.0275</v>
+        <v>0.1081720430107527</v>
       </c>
       <c r="O5">
-        <v>0.4293548387096774</v>
+        <v>-0.1617363344051447</v>
       </c>
       <c r="P5">
-        <v>1.19</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.02458677685950413</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.3838709677419355</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.141</v>
+        <v>0.503</v>
       </c>
       <c r="T5">
-        <v>0.1059353869271225</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>6.22</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>0.1285123966942149</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="W5">
-        <v>0.3069306930693069</v>
+        <v>-0.3239583333333333</v>
       </c>
       <c r="X5">
-        <v>0.0449105875371956</v>
+        <v>0.03491824415712516</v>
       </c>
       <c r="Y5">
-        <v>0.2620201055321113</v>
+        <v>-0.3588765774904585</v>
       </c>
       <c r="Z5">
-        <v>6.368092515862848</v>
+        <v>1.078868601962156</v>
       </c>
       <c r="AA5">
-        <v>0.08559630563245785</v>
+        <v>0.05005413951942683</v>
       </c>
       <c r="AB5">
-        <v>0.04413653239496736</v>
+        <v>0.03333821656415488</v>
       </c>
       <c r="AC5">
-        <v>0.04145977323749048</v>
+        <v>0.01671592295527195</v>
       </c>
       <c r="AD5">
-        <v>0.849</v>
+        <v>0.357</v>
       </c>
       <c r="AE5">
-        <v>1.23998617366226</v>
+        <v>0.5485407145762992</v>
       </c>
       <c r="AF5">
-        <v>2.08898617366226</v>
+        <v>0.9055407145762991</v>
       </c>
       <c r="AG5">
-        <v>-4.13101382633774</v>
+        <v>-2.094459285423701</v>
       </c>
       <c r="AH5">
-        <v>0.04137508656792927</v>
+        <v>0.1629977640520922</v>
       </c>
       <c r="AI5">
-        <v>0.07306961362577973</v>
+        <v>0.1375043832880714</v>
       </c>
       <c r="AJ5">
-        <v>-0.09331620584515392</v>
+        <v>-0.8195757842860099</v>
       </c>
       <c r="AK5">
-        <v>-0.1846759524220944</v>
+        <v>-0.584140427386334</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.039</v>
+        <v>-0.107</v>
       </c>
       <c r="AN5">
-        <v>0.8689866939611054</v>
+        <v>0.7986577181208053</v>
       </c>
       <c r="AP5">
-        <v>-4.228263895944463</v>
+        <v>-4.685591242558615</v>
       </c>
       <c r="AQ5">
         <v>-0</v>
@@ -1091,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cenkos Securities plc (AIM:CNKS)</t>
+          <t>Craven House Capital Plc (AIM:CRV)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1099,119 +1105,89 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D6">
-        <v>-0.173</v>
-      </c>
-      <c r="E6">
-        <v>-0.409</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.01462942776672085</v>
-      </c>
-      <c r="J6">
-        <v>0.01060056642907185</v>
-      </c>
       <c r="K6">
-        <v>2.3</v>
-      </c>
-      <c r="L6">
-        <v>0.04831932773109243</v>
+        <v>-13.2</v>
       </c>
       <c r="M6">
-        <v>4.640000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.1174683544303798</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>2.017391304347826</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.16</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.08</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>1.373913043478261</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.48</v>
-      </c>
-      <c r="T6">
-        <v>0.3189655172413793</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>18.6</v>
+        <v>0.006</v>
       </c>
       <c r="V6">
-        <v>0.4708860759493671</v>
+        <v>0.003296703296703297</v>
       </c>
       <c r="W6">
-        <v>0.06609195402298851</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="X6">
-        <v>0.0447732181674029</v>
+        <v>0.03142781672395131</v>
       </c>
       <c r="Y6">
-        <v>0.02131873585558561</v>
+        <v>-0.6028563881525227</v>
       </c>
       <c r="Z6">
-        <v>6.69178787121652</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.07093674185808804</v>
+        <v>0.03014169531315502</v>
       </c>
       <c r="AB6">
-        <v>0.04429251221367598</v>
+        <v>0.03142781672395131</v>
       </c>
       <c r="AC6">
-        <v>0.02664422964441206</v>
+        <v>-0.001286121410796291</v>
       </c>
       <c r="AD6">
-        <v>0.422</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.013196191520439</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.435196191520439</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-17.16480380847956</v>
+        <v>-0.006</v>
       </c>
       <c r="AH6">
-        <v>0.0350602006353089</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.04167817669857946</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.7685092023053812</v>
+        <v>-0.00330760749724366</v>
       </c>
       <c r="AK6">
-        <v>-1.083965339038307</v>
+        <v>-0.0007698229407236336</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.165</v>
-      </c>
-      <c r="AN6">
-        <v>0.4694104560622914</v>
-      </c>
-      <c r="AP6">
-        <v>-19.0932189193321</v>
+        <v>-0.143</v>
       </c>
       <c r="AQ6">
-        <v>-0</v>
+        <v>-5.027972027972028</v>
       </c>
     </row>
     <row r="7">
@@ -1222,7 +1198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arden Partners plc (AIM:ARDN)</t>
+          <t>Jarvis Securities plc (AIM:JIM)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1231,115 +1207,109 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.00036</v>
+        <v>0.09910000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.132</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02438191447389691</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02438191447389691</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-2.73</v>
+        <v>6.05</v>
       </c>
       <c r="L7">
-        <v>-0.2650485436893203</v>
+        <v>0.4033333333333333</v>
       </c>
       <c r="M7">
-        <v>0.449</v>
+        <v>4.26</v>
       </c>
       <c r="N7">
-        <v>0.06972049689440994</v>
+        <v>0.03222390317700454</v>
       </c>
       <c r="O7">
-        <v>-0.1644688644688645</v>
+        <v>0.7041322314049586</v>
       </c>
       <c r="P7">
-        <v>0.383</v>
+        <v>4.26</v>
       </c>
       <c r="Q7">
-        <v>0.05947204968944099</v>
+        <v>0.03222390317700454</v>
       </c>
       <c r="R7">
-        <v>-0.1402930402930403</v>
+        <v>0.7041322314049586</v>
       </c>
       <c r="S7">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1469933184855234</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>3.41</v>
+        <v>4.01</v>
       </c>
       <c r="V7">
-        <v>0.5295031055900621</v>
+        <v>0.03033282904689864</v>
       </c>
       <c r="W7">
-        <v>-0.2052631578947368</v>
+        <v>0.7092614302461899</v>
       </c>
       <c r="X7">
-        <v>0.04508673526367228</v>
+        <v>0.03145967776716919</v>
       </c>
       <c r="Y7">
-        <v>-0.2503498931584091</v>
+        <v>0.6778017524790207</v>
       </c>
       <c r="Z7">
-        <v>1.566699237705312</v>
+        <v>8.441193021947106</v>
       </c>
       <c r="AA7">
-        <v>0.0381991268200504</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04439459404468686</v>
+        <v>0.03143912782162411</v>
       </c>
       <c r="AC7">
-        <v>-0.006195467224636465</v>
+        <v>-0.03143912782162411</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AE7">
-        <v>0.3343314045943094</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.3343314045943094</v>
+        <v>0.235</v>
       </c>
       <c r="AG7">
-        <v>-3.075668595405691</v>
+        <v>-3.775</v>
       </c>
       <c r="AH7">
-        <v>0.04935267919835865</v>
+        <v>0.001774455393211764</v>
       </c>
       <c r="AI7">
-        <v>0.03365414248609543</v>
+        <v>0.02753368482718219</v>
       </c>
       <c r="AJ7">
-        <v>-0.9141990563728584</v>
+        <v>-0.02939458828109792</v>
       </c>
       <c r="AK7">
-        <v>-0.4714151389121442</v>
+        <v>-0.8342541436464087</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.07199999999999999</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>-9.671913822030474</v>
-      </c>
-      <c r="AQ7">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1350,7 +1320,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jarvis Securities plc (AIM:JIM)</t>
+          <t>AJ Bell plc (LSE:AJB)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1359,115 +1329,115 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0721</v>
+        <v>0.172</v>
       </c>
       <c r="E8">
-        <v>0.08380000000000001</v>
+        <v>0.258</v>
+      </c>
+      <c r="F8">
+        <v>0.15</v>
       </c>
       <c r="G8">
-        <v>0.003157894736842105</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.004123480524824775</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.003331042940972395</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4.75</v>
+        <v>50.2</v>
       </c>
       <c r="L8">
-        <v>0.3571428571428572</v>
+        <v>0.3083538083538083</v>
       </c>
       <c r="M8">
-        <v>3.898</v>
+        <v>25.5</v>
       </c>
       <c r="N8">
-        <v>0.05624819624819625</v>
+        <v>0.01053153264775121</v>
       </c>
       <c r="O8">
-        <v>0.8206315789473684</v>
+        <v>0.5079681274900398</v>
       </c>
       <c r="P8">
-        <v>3.61</v>
+        <v>25.5</v>
       </c>
       <c r="Q8">
-        <v>0.05209235209235209</v>
+        <v>0.01053153264775121</v>
       </c>
       <c r="R8">
-        <v>0.76</v>
+        <v>0.5079681274900398</v>
       </c>
       <c r="S8">
-        <v>0.2879999999999998</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0738840430990251</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>6.66</v>
+        <v>111.7</v>
       </c>
       <c r="V8">
-        <v>0.09610389610389611</v>
+        <v>0.04613224300995333</v>
       </c>
       <c r="W8">
-        <v>0.5952380952380952</v>
+        <v>0.4740321057601511</v>
       </c>
       <c r="X8">
-        <v>0.04439843594950161</v>
+        <v>0.03158400823909981</v>
       </c>
       <c r="Y8">
-        <v>0.5508396592885936</v>
+        <v>0.4424480975210513</v>
       </c>
       <c r="Z8">
-        <v>-4.170862950583778</v>
+        <v>9.462915601023022</v>
       </c>
       <c r="AA8">
-        <v>0.01389332358930539</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04408181417440659</v>
+        <v>0.03148288548810424</v>
       </c>
       <c r="AC8">
-        <v>-0.0301884905851012</v>
+        <v>-0.03148288548810424</v>
       </c>
       <c r="AD8">
-        <v>0.343</v>
+        <v>21.1</v>
       </c>
       <c r="AE8">
-        <v>0.8842114549008475</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.227211454900847</v>
+        <v>21.1</v>
       </c>
       <c r="AG8">
-        <v>-5.432788545099153</v>
+        <v>-90.59999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.01740053845295722</v>
+        <v>0.008639043563707829</v>
       </c>
       <c r="AI8">
-        <v>0.1257748138977191</v>
+        <v>0.1296865396435157</v>
       </c>
       <c r="AJ8">
-        <v>-0.08506381320461218</v>
+        <v>-0.03887244175569571</v>
       </c>
       <c r="AK8">
-        <v>-1.754090291931029</v>
+        <v>-1.776470588235294</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>2.811475409836066</v>
-      </c>
-      <c r="AP8">
-        <v>-44.53105364835371</v>
+        <v>-0.209</v>
+      </c>
+      <c r="AQ8">
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1448,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Charles Stanley Group PLC (LSE:CAY)</t>
+          <t>Numis Corporation Plc (AIM:NUM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1487,112 +1457,109 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.034</v>
+        <v>0.0998</v>
+      </c>
+      <c r="E9">
+        <v>0.0779</v>
       </c>
       <c r="G9">
-        <v>0.008091908091908092</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002563359726200291</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002114401346409142</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.2</v>
+        <v>40.5</v>
       </c>
       <c r="L9">
-        <v>0.07092907092907093</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="M9">
-        <v>5.854</v>
+        <v>28.9</v>
       </c>
       <c r="N9">
-        <v>0.02691494252873563</v>
+        <v>0.05971074380165289</v>
       </c>
       <c r="O9">
-        <v>0.4122535211267606</v>
+        <v>0.7135802469135802</v>
       </c>
       <c r="P9">
-        <v>5.46</v>
+        <v>16.3</v>
       </c>
       <c r="Q9">
-        <v>0.02510344827586207</v>
+        <v>0.03367768595041323</v>
       </c>
       <c r="R9">
-        <v>0.3845070422535212</v>
+        <v>0.4024691358024692</v>
       </c>
       <c r="S9">
-        <v>0.3940000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="T9">
-        <v>0.06730440724291085</v>
+        <v>0.4359861591695501</v>
       </c>
       <c r="U9">
-        <v>83.5</v>
+        <v>161.9</v>
       </c>
       <c r="V9">
-        <v>0.3839080459770115</v>
+        <v>0.334504132231405</v>
       </c>
       <c r="W9">
-        <v>0.1058911260253542</v>
+        <v>0.2383755150088287</v>
       </c>
       <c r="X9">
-        <v>0.04748220014274067</v>
+        <v>0.03164815765928412</v>
       </c>
       <c r="Y9">
-        <v>0.05840892588261354</v>
+        <v>0.2067273573495446</v>
       </c>
       <c r="Z9">
-        <v>4.112227502091686</v>
+        <v>3.013574660633484</v>
       </c>
       <c r="AA9">
-        <v>0.008694899367163363</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04508488833233786</v>
+        <v>0.03150522811469912</v>
       </c>
       <c r="AC9">
-        <v>-0.03638998896517449</v>
+        <v>-0.03150522811469912</v>
       </c>
       <c r="AD9">
-        <v>16.9</v>
+        <v>5.95</v>
       </c>
       <c r="AE9">
-        <v>20.28407691407351</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>37.18407691407351</v>
+        <v>5.95</v>
       </c>
       <c r="AG9">
-        <v>-46.31592308592649</v>
+        <v>-155.95</v>
       </c>
       <c r="AH9">
-        <v>0.1460007919011711</v>
+        <v>0.01214409633636085</v>
       </c>
       <c r="AI9">
-        <v>0.2153300847337306</v>
+        <v>0.02836710369487485</v>
       </c>
       <c r="AJ9">
-        <v>-0.2705620985366235</v>
+        <v>-0.4753848498704467</v>
       </c>
       <c r="AK9">
-        <v>-0.5193295113717514</v>
+        <v>-3.25914315569488</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.863</v>
-      </c>
-      <c r="AN9">
-        <v>3.698030634573304</v>
-      </c>
-      <c r="AP9">
-        <v>-10.13477529232527</v>
+        <v>-0.435</v>
       </c>
       <c r="AQ9">
         <v>-0</v>
@@ -1606,7 +1573,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CMC Markets Plc (LSE:CMCX)</t>
+          <t>Fiske plc (AIM:FKE)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1614,110 +1581,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.11</v>
+      </c>
       <c r="G10">
-        <v>0.01678463094034378</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.006370986197402396</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.005575943908701485</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>31.5</v>
+        <v>-0.157</v>
       </c>
       <c r="L10">
-        <v>0.1592517694641052</v>
+        <v>-0.02389649923896499</v>
       </c>
       <c r="M10">
-        <v>7.316</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.01305496074232691</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.2322539682539682</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>7.21</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.01286581013561742</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.2288888888888889</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.1059999999999999</v>
-      </c>
-      <c r="T10">
-        <v>0.01448879168944777</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>76.2</v>
+        <v>2.76</v>
       </c>
       <c r="V10">
-        <v>0.1359743040685225</v>
+        <v>0.2653846153846153</v>
       </c>
       <c r="W10">
-        <v>0.1142131979695431</v>
+        <v>-0.01524271844660194</v>
       </c>
       <c r="X10">
-        <v>0.04642627088286844</v>
+        <v>0.03169149944766278</v>
       </c>
       <c r="Y10">
-        <v>0.06778692708667471</v>
+        <v>-0.04693421789426472</v>
       </c>
       <c r="Z10">
-        <v>0.6691495460555715</v>
+        <v>0.9147869674185464</v>
       </c>
       <c r="AA10">
-        <v>0.003731140335338927</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04479871468838793</v>
+        <v>0.03164683021722256</v>
       </c>
       <c r="AC10">
-        <v>-0.041067574353049</v>
+        <v>-0.03164683021722256</v>
       </c>
       <c r="AD10">
-        <v>37.6</v>
+        <v>0.153</v>
       </c>
       <c r="AE10">
-        <v>28.79909465076903</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>66.39909465076903</v>
+        <v>0.153</v>
       </c>
       <c r="AG10">
-        <v>-9.800905349230973</v>
+        <v>-2.607</v>
       </c>
       <c r="AH10">
-        <v>0.1059336160779944</v>
+        <v>0.01449824694399697</v>
       </c>
       <c r="AI10">
-        <v>0.1890101502162345</v>
+        <v>0.01637589639302151</v>
       </c>
       <c r="AJ10">
-        <v>-0.01780043854857306</v>
+        <v>-0.3345309893494161</v>
       </c>
       <c r="AK10">
-        <v>-0.03562681789873922</v>
+        <v>-0.3960200516481847</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>5.356125356125356</v>
-      </c>
-      <c r="AP10">
-        <v>-1.396140363138315</v>
+        <v>-0.359</v>
+      </c>
+      <c r="AQ10">
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1728,7 +1692,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IG Group Holdings plc (LSE:IGG)</t>
+          <t>CMC Markets plc (LSE:CMCX)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1737,118 +1701,109 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0349</v>
+        <v>0.184</v>
       </c>
       <c r="E11">
-        <v>0.0147</v>
+        <v>0.314</v>
       </c>
       <c r="G11">
-        <v>0.01019880394375303</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003927872456649145</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.003200607328052606</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>199.7</v>
+        <v>220.1</v>
       </c>
       <c r="L11">
-        <v>0.3227735574591886</v>
+        <v>0.4494588523585869</v>
       </c>
       <c r="M11">
-        <v>218.42</v>
+        <v>56.4</v>
       </c>
       <c r="N11">
-        <v>0.0645315685289686</v>
+        <v>0.03638709677419355</v>
       </c>
       <c r="O11">
-        <v>1.093740610916375</v>
+        <v>0.2562471603816447</v>
       </c>
       <c r="P11">
-        <v>215.9</v>
+        <v>56.4</v>
       </c>
       <c r="Q11">
-        <v>0.06378704168759418</v>
+        <v>0.03638709677419355</v>
       </c>
       <c r="R11">
-        <v>1.081121682523786</v>
+        <v>0.2562471603816447</v>
       </c>
       <c r="S11">
-        <v>2.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.01153740499954221</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>471</v>
+        <v>194.1</v>
       </c>
       <c r="V11">
-        <v>0.1391556120187905</v>
+        <v>0.1252258064516129</v>
       </c>
       <c r="W11">
-        <v>0.1784469663122152</v>
+        <v>0.7725517725517725</v>
       </c>
       <c r="X11">
-        <v>0.04497962420442449</v>
+        <v>0.03177703649988763</v>
       </c>
       <c r="Y11">
-        <v>0.1334673421077907</v>
+        <v>0.7407747360518849</v>
       </c>
       <c r="Z11">
-        <v>0.9937373401454507</v>
+        <v>1.988225740966301</v>
       </c>
       <c r="AA11">
-        <v>0.003180563013029035</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04436006027349994</v>
+        <v>0.03165181130490384</v>
       </c>
       <c r="AC11">
-        <v>-0.0411794972604709</v>
+        <v>-0.03165181130490384</v>
       </c>
       <c r="AD11">
-        <v>125.7</v>
+        <v>30.2</v>
       </c>
       <c r="AE11">
-        <v>31.99912655535587</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>157.6991265553559</v>
+        <v>30.2</v>
       </c>
       <c r="AG11">
-        <v>-313.3008734446441</v>
+        <v>-163.9</v>
       </c>
       <c r="AH11">
-        <v>0.04451760541977752</v>
+        <v>0.01911150487280091</v>
       </c>
       <c r="AI11">
-        <v>0.1292722677822164</v>
+        <v>0.0608257804632427</v>
       </c>
       <c r="AJ11">
-        <v>-0.1020059134405037</v>
+        <v>-0.1182454368371691</v>
       </c>
       <c r="AK11">
-        <v>-0.4183485630243769</v>
+        <v>-0.5419973544973545</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-6.81</v>
-      </c>
-      <c r="AN11">
-        <v>14.23556058890147</v>
-      </c>
-      <c r="AP11">
-        <v>-35.4814126211375</v>
-      </c>
-      <c r="AQ11">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1859,7 +1814,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Numis Corporation Plc (AIM:NUM)</t>
+          <t>IG Group Holdings plc (LSE:IGG)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1868,13 +1823,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.033</v>
+        <v>0.0866</v>
       </c>
       <c r="E12">
-        <v>-0.142</v>
+        <v>0.128</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.008982561786475975</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1886,91 +1841,91 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.5</v>
+        <v>296.7</v>
       </c>
       <c r="L12">
-        <v>0.08556547619047619</v>
+        <v>0.3722243131351148</v>
       </c>
       <c r="M12">
-        <v>30.4</v>
+        <v>198.35</v>
       </c>
       <c r="N12">
-        <v>0.07489529440748953</v>
+        <v>0.04567119502647939</v>
       </c>
       <c r="O12">
-        <v>2.643478260869565</v>
+        <v>0.6685203909673071</v>
       </c>
       <c r="P12">
-        <v>15.6</v>
+        <v>196.5</v>
       </c>
       <c r="Q12">
-        <v>0.03843311160384331</v>
+        <v>0.04524522219663827</v>
       </c>
       <c r="R12">
-        <v>1.356521739130435</v>
+        <v>0.6622851365015167</v>
       </c>
       <c r="S12">
-        <v>14.8</v>
+        <v>1.849999999999994</v>
       </c>
       <c r="T12">
-        <v>0.4868421052631579</v>
+        <v>0.009326947315351622</v>
       </c>
       <c r="U12">
-        <v>103.6</v>
+        <v>600.1</v>
       </c>
       <c r="V12">
-        <v>0.2552352796255235</v>
+        <v>0.1381763757771126</v>
       </c>
       <c r="W12">
-        <v>0.06159614354579539</v>
+        <v>0.2793259273206552</v>
       </c>
       <c r="X12">
-        <v>0.04404210012030307</v>
+        <v>0.03208483404427988</v>
       </c>
       <c r="Y12">
-        <v>0.01755404342549232</v>
+        <v>0.2472410932763753</v>
       </c>
       <c r="Z12">
-        <v>3.278048780487805</v>
+        <v>1.37312661498708</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04404210012030307</v>
+        <v>0.03165321881774692</v>
       </c>
       <c r="AC12">
-        <v>-0.04404210012030307</v>
+        <v>-0.03165321881774692</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>159.2</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>159.2</v>
       </c>
       <c r="AG12">
-        <v>-103.6</v>
+        <v>-440.9</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.0353604904269024</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.1211291181617591</v>
       </c>
       <c r="AJ12">
-        <v>-0.3427059212702613</v>
+        <v>-0.1129904410445658</v>
       </c>
       <c r="AK12">
-        <v>-1.562594268476621</v>
+        <v>-0.617334080089611</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.841</v>
+        <v>-7.16</v>
       </c>
       <c r="AQ12">
         <v>-0</v>
@@ -1984,7 +1939,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Walker Crips Group plc (LSE:WCW)</t>
+          <t>Charles Stanley Group PLC (LSE:CAY)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1993,13 +1948,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0717</v>
-      </c>
-      <c r="E13">
-        <v>0.1</v>
+        <v>0.0291</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0020861989912884</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2011,91 +1963,91 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8149999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="L13">
-        <v>0.02144736842105263</v>
+        <v>0.06602475928473178</v>
       </c>
       <c r="M13">
-        <v>0.477</v>
+        <v>6.619</v>
       </c>
       <c r="N13">
-        <v>0.03138157894736842</v>
+        <v>0.03375318714941356</v>
       </c>
       <c r="O13">
-        <v>0.585276073619632</v>
+        <v>0.4596527777777777</v>
       </c>
       <c r="P13">
-        <v>0.477</v>
+        <v>6.02</v>
       </c>
       <c r="Q13">
-        <v>0.03138157894736842</v>
+        <v>0.03069862315145334</v>
       </c>
       <c r="R13">
-        <v>0.585276073619632</v>
+        <v>0.4180555555555555</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.5990000000000002</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.09049705393563985</v>
       </c>
       <c r="U13">
-        <v>9.289999999999999</v>
+        <v>119.2</v>
       </c>
       <c r="V13">
-        <v>0.6111842105263158</v>
+        <v>0.607853136155023</v>
       </c>
       <c r="W13">
-        <v>0.02869718309859155</v>
+        <v>0.1063515509601182</v>
       </c>
       <c r="X13">
-        <v>0.0520247494372502</v>
+        <v>0.03274397610318726</v>
       </c>
       <c r="Y13">
-        <v>-0.02332756633865865</v>
+        <v>0.07360757485693091</v>
       </c>
       <c r="Z13">
-        <v>2.332719459791283</v>
+        <v>4.234951456310679</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04469035956600038</v>
+        <v>0.03186388054711364</v>
       </c>
       <c r="AC13">
-        <v>-0.04469035956600038</v>
+        <v>-0.03186388054711364</v>
       </c>
       <c r="AD13">
-        <v>6.03</v>
+        <v>14.4</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>6.03</v>
+        <v>14.4</v>
       </c>
       <c r="AG13">
-        <v>-3.259999999999999</v>
+        <v>-104.8</v>
       </c>
       <c r="AH13">
-        <v>0.2840320301460198</v>
+        <v>0.06840855106888362</v>
       </c>
       <c r="AI13">
-        <v>0.1777188328912467</v>
+        <v>0.08801955990220049</v>
       </c>
       <c r="AJ13">
-        <v>-0.2730318257956448</v>
+        <v>-1.147864184008762</v>
       </c>
       <c r="AK13">
-        <v>-0.1323051948051948</v>
+        <v>-2.360360360360361</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>-0.193</v>
+        <v>-0.556</v>
       </c>
       <c r="AQ13">
         <v>-0</v>
@@ -2109,7 +2061,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Share Plc (AIM:SHRE)</t>
+          <t>Cenkos Securities plc (AIM:CNKS)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2118,115 +2070,109 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.07099999999999999</v>
+        <v>-0.182</v>
       </c>
       <c r="E14">
-        <v>-0.25</v>
+        <v>-0.454</v>
       </c>
       <c r="G14">
-        <v>0.01946236559139785</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.0006873880806577309</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.0005801930583329385</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.433</v>
+        <v>1.03</v>
       </c>
       <c r="L14">
-        <v>0.01551971326164875</v>
+        <v>0.02968299711815562</v>
       </c>
       <c r="M14">
-        <v>1.801</v>
+        <v>3.85</v>
       </c>
       <c r="N14">
-        <v>0.03292504570383912</v>
+        <v>0.1007853403141361</v>
       </c>
       <c r="O14">
-        <v>4.159353348729792</v>
+        <v>3.737864077669903</v>
       </c>
       <c r="P14">
-        <v>0.972</v>
+        <v>1.98</v>
       </c>
       <c r="Q14">
-        <v>0.01776965265082267</v>
+        <v>0.05183246073298429</v>
       </c>
       <c r="R14">
-        <v>2.244803695150115</v>
+        <v>1.922330097087379</v>
       </c>
       <c r="S14">
-        <v>0.829</v>
+        <v>1.87</v>
       </c>
       <c r="T14">
-        <v>0.4602998334258745</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="U14">
-        <v>11.8</v>
+        <v>27.7</v>
       </c>
       <c r="V14">
-        <v>0.2157221206581353</v>
+        <v>0.725130890052356</v>
       </c>
       <c r="W14">
-        <v>0.01827004219409283</v>
+        <v>0.03121212121212121</v>
       </c>
       <c r="X14">
-        <v>0.0454255922888445</v>
+        <v>0.03463246909206429</v>
       </c>
       <c r="Y14">
-        <v>-0.02715555009475168</v>
+        <v>-0.003420347879943081</v>
       </c>
       <c r="Z14">
-        <v>2.04083265240784</v>
+        <v>2.341114559438673</v>
       </c>
       <c r="AA14">
-        <v>-0.001184076938146228</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04418892742038773</v>
+        <v>0.03239466521310334</v>
       </c>
       <c r="AC14">
-        <v>-0.04537300435853395</v>
+        <v>-0.03239466521310334</v>
       </c>
       <c r="AD14">
-        <v>1.79</v>
+        <v>6.83</v>
       </c>
       <c r="AE14">
-        <v>1.970890637251753</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>3.760890637251753</v>
+        <v>6.83</v>
       </c>
       <c r="AG14">
-        <v>-8.039109362748247</v>
+        <v>-20.87</v>
       </c>
       <c r="AH14">
-        <v>0.06433173693141245</v>
+        <v>0.1516766600044415</v>
       </c>
       <c r="AI14">
-        <v>0.1303109694195453</v>
+        <v>0.1834542035992479</v>
       </c>
       <c r="AJ14">
-        <v>-0.1722879536364919</v>
+        <v>-1.204270051933064</v>
       </c>
       <c r="AK14">
-        <v>-0.4712010371366652</v>
+        <v>-2.189926547743966</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>-0.147</v>
-      </c>
-      <c r="AN14">
-        <v>4.773333333333333</v>
-      </c>
-      <c r="AP14">
-        <v>-21.43762496732866</v>
+        <v>-0.079</v>
       </c>
       <c r="AQ14">
         <v>-0</v>
@@ -2240,7 +2186,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TP ICAP plc (LSE:TCAP)</t>
+          <t>finnCap Group plc (AIM:FCAP)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2249,109 +2195,103 @@
         </is>
       </c>
       <c r="G15">
-        <v>0.09694850603941514</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.009940555813843996</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>-0.006917074417063989</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>108</v>
+        <v>3.37</v>
       </c>
       <c r="L15">
-        <v>0.04904186722368541</v>
+        <v>0.07929411764705882</v>
       </c>
       <c r="M15">
-        <v>129.7</v>
+        <v>0.855</v>
       </c>
       <c r="N15">
-        <v>0.04288028564816345</v>
+        <v>0.0165057915057915</v>
       </c>
       <c r="O15">
-        <v>1.200925925925926</v>
+        <v>0.2537091988130564</v>
       </c>
       <c r="P15">
-        <v>119.5</v>
+        <v>0.855</v>
       </c>
       <c r="Q15">
-        <v>0.03950805038516217</v>
+        <v>0.0165057915057915</v>
       </c>
       <c r="R15">
-        <v>1.106481481481481</v>
+        <v>0.2537091988130564</v>
       </c>
       <c r="S15">
-        <v>10.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.07864302235929059</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>820.9</v>
+        <v>15.7</v>
       </c>
       <c r="V15">
-        <v>0.271398816411545</v>
+        <v>0.3030888030888031</v>
       </c>
       <c r="W15">
-        <v>0.04575108023383886</v>
+        <v>0.1271698113207547</v>
       </c>
       <c r="X15">
-        <v>0.05361621711120912</v>
+        <v>0.0382442949375438</v>
       </c>
       <c r="Y15">
-        <v>-0.007865136877370262</v>
+        <v>0.08892551638321092</v>
       </c>
       <c r="Z15">
-        <v>1.521323404009151</v>
+        <v>8.987100866990902</v>
       </c>
       <c r="AA15">
-        <v>-0.0105231071979524</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04634480609495902</v>
+        <v>0.03318412137146559</v>
       </c>
       <c r="AC15">
-        <v>-0.05686791329291142</v>
+        <v>-0.03318412137146559</v>
       </c>
       <c r="AD15">
-        <v>1113.2</v>
+        <v>19.7</v>
       </c>
       <c r="AE15">
-        <v>325.9554600662362</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1439.155460066236</v>
+        <v>19.7</v>
       </c>
       <c r="AG15">
-        <v>618.2554600662362</v>
+        <v>4</v>
       </c>
       <c r="AH15">
-        <v>0.3224018951646077</v>
+        <v>0.2755244755244755</v>
       </c>
       <c r="AI15">
-        <v>0.3863239650256489</v>
+        <v>0.3893280632411067</v>
       </c>
       <c r="AJ15">
-        <v>0.169712604736319</v>
+        <v>0.07168458781362008</v>
       </c>
       <c r="AK15">
-        <v>0.2128718294186127</v>
+        <v>0.1146131805157593</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>-7.62</v>
-      </c>
-      <c r="AN15">
-        <v>25.70900692840647</v>
-      </c>
-      <c r="AP15">
-        <v>14.27841709159899</v>
+        <v>-0.028</v>
       </c>
       <c r="AQ15">
         <v>-0</v>
@@ -2365,7 +2305,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Craven House Capital Plc (AIM:CRV)</t>
+          <t>TP ICAP plc (LSE:TCAP)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2373,89 +2313,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="G16">
+        <v>0.09741707093221451</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
       <c r="K16">
-        <v>-1.81</v>
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.02976268519732529</v>
       </c>
       <c r="M16">
-        <v>-0</v>
+        <v>126.31</v>
       </c>
       <c r="N16">
-        <v>-0</v>
+        <v>0.0695042095416277</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.854772393538914</v>
       </c>
       <c r="P16">
-        <v>-0</v>
+        <v>116.4</v>
       </c>
       <c r="Q16">
-        <v>-0</v>
+        <v>0.06405106476641172</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.709251101321586</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>9.909999999999997</v>
+      </c>
+      <c r="T16">
+        <v>0.07845776264745465</v>
       </c>
       <c r="U16">
-        <v>0.046</v>
+        <v>901.4</v>
       </c>
       <c r="V16">
-        <v>0.007504078303425775</v>
+        <v>0.4960105651240852</v>
       </c>
       <c r="W16">
-        <v>-0.07269076305220884</v>
+        <v>0.03007286376683594</v>
       </c>
       <c r="X16">
-        <v>0.04666814920316709</v>
+        <v>0.04298002742130397</v>
       </c>
       <c r="Y16">
-        <v>-0.1193589122553759</v>
+        <v>-0.01290716365446802</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1.820576066199873</v>
       </c>
       <c r="AA16">
-        <v>-0.08945737042413779</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04522193807401033</v>
+        <v>0.03392609043146445</v>
       </c>
       <c r="AC16">
-        <v>-0.1346793084981481</v>
+        <v>-0.03392609043146445</v>
       </c>
       <c r="AD16">
-        <v>0.8</v>
+        <v>1171.3</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.8</v>
+        <v>1171.3</v>
       </c>
       <c r="AG16">
-        <v>0.754</v>
+        <v>269.9</v>
       </c>
       <c r="AH16">
-        <v>0.1154401154401155</v>
+        <v>0.3919226393629124</v>
       </c>
       <c r="AI16">
-        <v>0.03347280334728033</v>
+        <v>0.3466410180526783</v>
       </c>
       <c r="AJ16">
-        <v>0.1095293434049971</v>
+        <v>0.1293119969336911</v>
       </c>
       <c r="AK16">
-        <v>0.03160895447304435</v>
+        <v>0.1089360671617694</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>-0.098</v>
+        <v>-6.19</v>
       </c>
       <c r="AQ16">
-        <v>23.26530612244898</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -2466,124 +2424,505 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Walker Crips Group plc (LSE:WCW)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.034</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-0.194</v>
+      </c>
+      <c r="L17">
+        <v>-0.005</v>
+      </c>
+      <c r="M17">
+        <v>0.33</v>
+      </c>
+      <c r="N17">
+        <v>0.02142857142857143</v>
+      </c>
+      <c r="O17">
+        <v>-1.701030927835051</v>
+      </c>
+      <c r="P17">
+        <v>0.33</v>
+      </c>
+      <c r="Q17">
+        <v>0.02142857142857143</v>
+      </c>
+      <c r="R17">
+        <v>-1.701030927835051</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>10.1</v>
+      </c>
+      <c r="V17">
+        <v>0.6558441558441558</v>
+      </c>
+      <c r="W17">
+        <v>-0.006953405017921147</v>
+      </c>
+      <c r="X17">
+        <v>0.0378872712747645</v>
+      </c>
+      <c r="Y17">
+        <v>-0.04484067629268565</v>
+      </c>
+      <c r="Z17">
+        <v>2.019781363872982</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.03542969924518231</v>
+      </c>
+      <c r="AC17">
+        <v>-0.03542969924518231</v>
+      </c>
+      <c r="AD17">
+        <v>5.55</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>5.55</v>
+      </c>
+      <c r="AG17">
+        <v>-4.55</v>
+      </c>
+      <c r="AH17">
+        <v>0.2649164677804296</v>
+      </c>
+      <c r="AI17">
+        <v>0.1615720524017467</v>
+      </c>
+      <c r="AJ17">
+        <v>-0.4193548387096773</v>
+      </c>
+      <c r="AK17">
+        <v>-0.1876288659793814</v>
+      </c>
+      <c r="AL17">
+        <v>0.021</v>
+      </c>
+      <c r="AM17">
+        <v>0.021</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Argentum 47, Inc. (OTCPK:ARGQ)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D17">
-        <v>-0.134</v>
-      </c>
-      <c r="G17">
-        <v>-6.627218934911243</v>
-      </c>
-      <c r="H17">
-        <v>-6.627218934911243</v>
-      </c>
-      <c r="I17">
-        <v>-4.731957372338199</v>
-      </c>
-      <c r="J17">
-        <v>-4.731957372338199</v>
-      </c>
-      <c r="K17">
-        <v>-4.52</v>
-      </c>
-      <c r="L17">
-        <v>-26.74556213017751</v>
-      </c>
-      <c r="M17">
-        <v>-0</v>
-      </c>
-      <c r="N17">
-        <v>-0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>-0</v>
-      </c>
-      <c r="Q17">
-        <v>-0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0.003</v>
-      </c>
-      <c r="V17">
-        <v>0.002027027027027027</v>
-      </c>
-      <c r="W17">
-        <v>-1.731800766283525</v>
-      </c>
-      <c r="X17">
-        <v>0.05856949545885225</v>
-      </c>
-      <c r="Y17">
-        <v>-1.790370261742377</v>
-      </c>
-      <c r="Z17">
-        <v>0.04141645268423411</v>
-      </c>
-      <c r="AA17">
-        <v>-0.1959808886152578</v>
-      </c>
-      <c r="AB17">
-        <v>0.06146992258843276</v>
-      </c>
-      <c r="AC17">
-        <v>-0.2574508112036905</v>
-      </c>
-      <c r="AD17">
-        <v>1.05</v>
-      </c>
-      <c r="AE17">
-        <v>0.01850397962577878</v>
-      </c>
-      <c r="AF17">
-        <v>1.068503979625779</v>
-      </c>
-      <c r="AG17">
-        <v>1.065503979625779</v>
-      </c>
-      <c r="AH17">
-        <v>0.41926714188717</v>
-      </c>
-      <c r="AI17">
-        <v>1.94095595885088</v>
-      </c>
-      <c r="AJ17">
-        <v>0.4185827200248265</v>
-      </c>
-      <c r="AK17">
-        <v>1.946111844436373</v>
-      </c>
-      <c r="AL17">
-        <v>0.275</v>
-      </c>
-      <c r="AM17">
-        <v>0.275</v>
-      </c>
-      <c r="AN17">
-        <v>-1.360103626943005</v>
-      </c>
-      <c r="AO17">
-        <v>-2.967272727272727</v>
-      </c>
-      <c r="AP17">
-        <v>-1.380186502105931</v>
-      </c>
-      <c r="AQ17">
-        <v>-2.967272727272727</v>
+      <c r="D18">
+        <v>-0.482</v>
+      </c>
+      <c r="G18">
+        <v>-6.516483516483516</v>
+      </c>
+      <c r="H18">
+        <v>-6.516483516483516</v>
+      </c>
+      <c r="I18">
+        <v>-5.201707605620992</v>
+      </c>
+      <c r="J18">
+        <v>-5.201707605620992</v>
+      </c>
+      <c r="K18">
+        <v>-0.584</v>
+      </c>
+      <c r="L18">
+        <v>-6.417582417582417</v>
+      </c>
+      <c r="M18">
+        <v>-0</v>
+      </c>
+      <c r="N18">
+        <v>-0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>-0</v>
+      </c>
+      <c r="Q18">
+        <v>-0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.047</v>
+      </c>
+      <c r="V18">
+        <v>0.03790322580645161</v>
+      </c>
+      <c r="W18">
+        <v>1.031802120141343</v>
+      </c>
+      <c r="X18">
+        <v>0.05053339015125674</v>
+      </c>
+      <c r="Y18">
+        <v>0.981268729990086</v>
+      </c>
+      <c r="Z18">
+        <v>0.2310952877262103</v>
+      </c>
+      <c r="AA18">
+        <v>-1.2020901157886</v>
+      </c>
+      <c r="AB18">
+        <v>0.03747508851642258</v>
+      </c>
+      <c r="AC18">
+        <v>-1.239565204305022</v>
+      </c>
+      <c r="AD18">
+        <v>1.24</v>
+      </c>
+      <c r="AE18">
+        <v>0.08177696055755172</v>
+      </c>
+      <c r="AF18">
+        <v>1.321776960557552</v>
+      </c>
+      <c r="AG18">
+        <v>1.274776960557552</v>
+      </c>
+      <c r="AH18">
+        <v>0.5159609836876184</v>
+      </c>
+      <c r="AI18">
+        <v>5.959938116360592</v>
+      </c>
+      <c r="AJ18">
+        <v>0.5069145218647624</v>
+      </c>
+      <c r="AK18">
+        <v>7.293735721750262</v>
+      </c>
+      <c r="AL18">
+        <v>0.064</v>
+      </c>
+      <c r="AM18">
+        <v>0.064</v>
+      </c>
+      <c r="AN18">
+        <v>-2.87037037037037</v>
+      </c>
+      <c r="AO18">
+        <v>-7.390624999999999</v>
+      </c>
+      <c r="AP18">
+        <v>-2.950872593883222</v>
+      </c>
+      <c r="AQ18">
+        <v>-7.390624999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Argentex Group Plc (AIM:AGFX)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>0.4885386819484241</v>
+      </c>
+      <c r="H19">
+        <v>0.4498567335243553</v>
+      </c>
+      <c r="I19">
+        <v>0.3610315186246418</v>
+      </c>
+      <c r="J19">
+        <v>0.2844578981421573</v>
+      </c>
+      <c r="K19">
+        <v>9.82</v>
+      </c>
+      <c r="L19">
+        <v>0.2813753581661891</v>
+      </c>
+      <c r="M19">
+        <v>2.93</v>
+      </c>
+      <c r="N19">
+        <v>0.01353974121996303</v>
+      </c>
+      <c r="O19">
+        <v>0.2983706720977597</v>
+      </c>
+      <c r="P19">
+        <v>2.93</v>
+      </c>
+      <c r="Q19">
+        <v>0.01353974121996303</v>
+      </c>
+      <c r="R19">
+        <v>0.2983706720977597</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>49.2</v>
+      </c>
+      <c r="V19">
+        <v>0.2273567467652496</v>
+      </c>
+      <c r="W19">
+        <v>0.06572958500669344</v>
+      </c>
+      <c r="X19">
+        <v>0.03267848828749405</v>
+      </c>
+      <c r="Y19">
+        <v>0.0330510967191994</v>
+      </c>
+      <c r="Z19">
+        <v>-6.685823754789273</v>
+      </c>
+      <c r="AA19">
+        <v>-1.901835372636263</v>
+      </c>
+      <c r="AB19">
+        <v>0.03184359866093014</v>
+      </c>
+      <c r="AC19">
+        <v>-1.933678971297193</v>
+      </c>
+      <c r="AD19">
+        <v>15.1</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>15.1</v>
+      </c>
+      <c r="AG19">
+        <v>-34.1</v>
+      </c>
+      <c r="AH19">
+        <v>0.0652267818574514</v>
+      </c>
+      <c r="AI19">
+        <v>0.3139293139293139</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.1870543060888645</v>
+      </c>
+      <c r="AK19">
+        <v>30.99999999999996</v>
+      </c>
+      <c r="AL19">
+        <v>0.256</v>
+      </c>
+      <c r="AM19">
+        <v>0.12</v>
+      </c>
+      <c r="AN19">
+        <v>1.170542635658915</v>
+      </c>
+      <c r="AO19">
+        <v>49.21875</v>
+      </c>
+      <c r="AP19">
+        <v>-2.643410852713179</v>
+      </c>
+      <c r="AQ19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alpha FX Group plc (AIM:AFX)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="H20">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="I20">
+        <v>0.3632478632478633</v>
+      </c>
+      <c r="J20">
+        <v>0.2930526680526681</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="M20">
+        <v>1.01</v>
+      </c>
+      <c r="N20">
+        <v>0.001418340120769555</v>
+      </c>
+      <c r="O20">
+        <v>0.08416666666666667</v>
+      </c>
+      <c r="P20">
+        <v>1.01</v>
+      </c>
+      <c r="Q20">
+        <v>0.001418340120769555</v>
+      </c>
+      <c r="R20">
+        <v>0.08416666666666667</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>144.4</v>
+      </c>
+      <c r="V20">
+        <v>0.202780508355568</v>
+      </c>
+      <c r="W20">
+        <v>0.1875</v>
+      </c>
+      <c r="X20">
+        <v>0.03166567288616658</v>
+      </c>
+      <c r="Y20">
+        <v>0.1558343271138334</v>
+      </c>
+      <c r="Z20">
+        <v>-42.54545454545421</v>
+      </c>
+      <c r="AA20">
+        <v>-12.46805896805887</v>
+      </c>
+      <c r="AB20">
+        <v>0.03158131659100354</v>
+      </c>
+      <c r="AC20">
+        <v>-12.49964028464988</v>
+      </c>
+      <c r="AD20">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AG20">
+        <v>-134.95</v>
+      </c>
+      <c r="AH20">
+        <v>0.01309680548818516</v>
+      </c>
+      <c r="AI20">
+        <v>0.08634079488350845</v>
+      </c>
+      <c r="AJ20">
+        <v>-0.2338213635969852</v>
+      </c>
+      <c r="AK20">
+        <v>3.861230329041486</v>
+      </c>
+      <c r="AL20">
+        <v>0.469</v>
+      </c>
+      <c r="AM20">
+        <v>0.382</v>
+      </c>
+      <c r="AN20">
+        <v>0.5431034482758621</v>
+      </c>
+      <c r="AO20">
+        <v>36.24733475479744</v>
+      </c>
+      <c r="AP20">
+        <v>-7.755747126436783</v>
+      </c>
+      <c r="AQ20">
+        <v>44.50261780104712</v>
       </c>
     </row>
   </sheetData>
